--- a/図書貸出システム/card.xlsx
+++ b/図書貸出システム/card.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\LaLa\09-mysql\mysql-work-git\図書貸出システム\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F297BE25-88C3-4F58-B241-C765E05525CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,9 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="49">
-  <si>
-    <t xml:space="preserve">図書貸出カード</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="50">
+  <si>
+    <t>図書貸出カード</t>
   </si>
   <si>
     <r>
@@ -32,7 +37,7 @@
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">第</t>
+      <t>第</t>
     </r>
     <r>
       <rPr>
@@ -42,7 +47,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">1</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -51,11 +56,11 @@
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">正規形</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">１つのセルに１つのデータ。空白セルはない。</t>
+      <t>正規形</t>
+    </r>
+  </si>
+  <si>
+    <t>１つのセルに１つのデータ。空白セルはない。</t>
   </si>
   <si>
     <r>
@@ -65,7 +70,7 @@
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">貸出</t>
+      <t>貸出</t>
     </r>
     <r>
       <rPr>
@@ -75,56 +80,56 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">ID</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">会員番号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">会員名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">貸出日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">返却予定日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">書籍番号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">書籍名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">著者</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">菅原文太</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024/04/02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024/04/18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B0011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">カレーの作り方</t>
-  </si>
-  <si>
-    <t xml:space="preserve">山下達郎</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B0012</t>
+      <t>ID</t>
+    </r>
+  </si>
+  <si>
+    <t>会員番号</t>
+  </si>
+  <si>
+    <t>会員名</t>
+  </si>
+  <si>
+    <t>貸出日</t>
+  </si>
+  <si>
+    <t>返却予定日</t>
+  </si>
+  <si>
+    <t>書籍番号</t>
+  </si>
+  <si>
+    <t>書籍名</t>
+  </si>
+  <si>
+    <t>著者</t>
+  </si>
+  <si>
+    <t>L001</t>
+  </si>
+  <si>
+    <t>m001</t>
+  </si>
+  <si>
+    <t>菅原文太</t>
+  </si>
+  <si>
+    <t>2024/04/02</t>
+  </si>
+  <si>
+    <t>2024/04/18</t>
+  </si>
+  <si>
+    <t>B0011</t>
+  </si>
+  <si>
+    <t>カレーの作り方</t>
+  </si>
+  <si>
+    <t>山下達郎</t>
+  </si>
+  <si>
+    <t>B0012</t>
   </si>
   <si>
     <r>
@@ -135,7 +140,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">HTMLCSS</t>
+      <t>HTMLCSS</t>
     </r>
     <r>
       <rPr>
@@ -144,14 +149,14 @@
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">の本</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">mana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B0013</t>
+      <t>の本</t>
+    </r>
+  </si>
+  <si>
+    <t>mana</t>
+  </si>
+  <si>
+    <t>B0013</t>
   </si>
   <si>
     <r>
@@ -162,7 +167,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">JavaScript</t>
+      <t>JavaScript</t>
     </r>
     <r>
       <rPr>
@@ -171,29 +176,29 @@
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">超入門</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">加納治五郎</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">千葉真一</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C0013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">空手入門</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大山倍達</t>
+      <t>超入門</t>
+    </r>
+  </si>
+  <si>
+    <t>加納治五郎</t>
+  </si>
+  <si>
+    <t>L002</t>
+  </si>
+  <si>
+    <t>m002</t>
+  </si>
+  <si>
+    <t>千葉真一</t>
+  </si>
+  <si>
+    <t>C0013</t>
+  </si>
+  <si>
+    <t>空手入門</t>
+  </si>
+  <si>
+    <t>大山倍達</t>
   </si>
   <si>
     <r>
@@ -203,7 +208,7 @@
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">第</t>
+      <t>第</t>
     </r>
     <r>
       <rPr>
@@ -213,7 +218,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">2</t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -222,50 +227,50 @@
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">正規形</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">部分関数従属を解消する。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">char(4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar(50)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lending_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">return_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lending_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">books_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">char(5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar(255)</t>
+      <t>正規形</t>
+    </r>
+  </si>
+  <si>
+    <t>部分関数従属を解消する。</t>
+  </si>
+  <si>
+    <t>char(4)</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>member_id</t>
+  </si>
+  <si>
+    <t>lending_date</t>
+  </si>
+  <si>
+    <t>return_date</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>lending_id</t>
+  </si>
+  <si>
+    <t>books_id</t>
+  </si>
+  <si>
+    <t>char(5)</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>varchar(255)</t>
   </si>
   <si>
     <r>
@@ -275,7 +280,7 @@
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">第</t>
+      <t>第</t>
     </r>
     <r>
       <rPr>
@@ -285,7 +290,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">3</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -294,11 +299,11 @@
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">正規形</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">推移的関数従属を解消する。</t>
+      <t>正規形</t>
+    </r>
+  </si>
+  <si>
+    <t>推移的関数従属を解消する。</t>
   </si>
   <si>
     <r>
@@ -309,7 +314,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">(</t>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -318,7 +323,7 @@
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">上の表に推移的関数従属はない</t>
+      <t>上の表に推移的関数従属はない</t>
     </r>
     <r>
       <rPr>
@@ -328,18 +333,88 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>この表の主キーは、"貸出ID, 書籍番号"である。
+この主キーに従属しているのは、会員番号、貸出日、返却予定日である。
+会員名は、会員番号に従属している。
+書籍名、著者は、書籍番号に従属している。</t>
+    <rPh sb="2" eb="3">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カシダシ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジュウゾク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>カシダシビ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="52" eb="55">
+      <t>ヨテイビ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ジュウゾク</t>
+    </rPh>
+    <rPh sb="78" eb="81">
+      <t>ショセキメイ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>チョシャ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ジュウゾク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,25 +422,16 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -384,120 +450,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.7999"/>
+        <fgColor theme="4" tint="0.79989013336588644"/>
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="double"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -556,60 +622,76 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -641,7 +723,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -665,7 +747,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -725,51 +807,50 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B2:I41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:J46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="12.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.92"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+    <row r="2" spans="2:10">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+    <row r="4" spans="2:10" ht="18.75">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+    <row r="5" spans="2:10" ht="18.75">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -794,7 +875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:10" ht="18.75">
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
@@ -820,7 +901,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:10" ht="18.75">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -846,7 +927,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:10" ht="18.75">
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
@@ -872,7 +953,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:10" ht="18.75">
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
@@ -898,269 +979,325 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+    <row r="10" spans="2:10" ht="18.75">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="2:10" ht="78" customHeight="1">
+      <c r="B11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="2:10" ht="18.75">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="2:10" ht="18.75">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="2:10" ht="18.75">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="16" spans="2:10" ht="18.75">
+      <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="6" t="s">
+    <row r="17" spans="2:5" ht="18.75">
+      <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="7" t="s">
+    <row r="18" spans="2:5">
+      <c r="B18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="8" t="s">
+    <row r="19" spans="2:5" ht="18.75">
+      <c r="B19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C19" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="6" t="s">
+    <row r="20" spans="2:5" ht="18.75">
+      <c r="B20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="2" t="s">
+    <row r="22" spans="2:5" ht="18.75">
+      <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="6" t="s">
+    <row r="23" spans="2:5" ht="18.75">
+      <c r="B23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="7" t="s">
+    <row r="24" spans="2:5" ht="18.75">
+      <c r="B24" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="8" t="s">
+    <row r="25" spans="2:5" ht="18.75">
+      <c r="B25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="6" t="s">
+    <row r="26" spans="2:5" ht="18.75">
+      <c r="B26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="2" t="s">
+    <row r="28" spans="2:5" ht="18.75">
+      <c r="B28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="6" t="s">
+    <row r="29" spans="2:5" ht="18.75">
+      <c r="B29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="7" t="s">
+    <row r="30" spans="2:5" ht="18.75">
+      <c r="B30" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="8" t="s">
+    <row r="31" spans="2:5" ht="18.75">
+      <c r="B31" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="6" t="s">
+    <row r="32" spans="2:5" ht="18.75">
+      <c r="B32" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="6" t="s">
+    <row r="33" spans="2:4" ht="18.75">
+      <c r="B33" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="6" t="s">
+    <row r="34" spans="2:4" ht="18.75">
+      <c r="B34" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="2" t="s">
+    <row r="36" spans="2:4" ht="18.75">
+      <c r="B36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="6" t="s">
+    <row r="37" spans="2:4" ht="18.75">
+      <c r="B37" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="7" t="s">
+    <row r="38" spans="2:4">
+      <c r="B38" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D38" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="8" t="s">
+    <row r="39" spans="2:4" ht="18.75">
+      <c r="B39" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C39" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D39" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="6" t="s">
+    <row r="40" spans="2:4" ht="18.75">
+      <c r="B40" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="6" t="s">
+    <row r="41" spans="2:4" ht="18.75">
+      <c r="B41" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C41" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D41" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="6" t="s">
+    <row r="42" spans="2:4" ht="18.75">
+      <c r="B42" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D42" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
+    <row r="45" spans="2:4" ht="18.75">
+      <c r="B45" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C45" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="2" t="s">
+    <row r="46" spans="2:4" ht="18.75">
+      <c r="B46" s="2" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <mergeCells count="1">
+    <mergeCell ref="B11:I11"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/図書貸出システム/card.xlsx
+++ b/図書貸出システム/card.xlsx
@@ -792,7 +792,7 @@
   </sheetPr>
   <dimension ref="B2:XFD98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I41" activeCellId="0" sqref="I41"/>
     </sheetView>
   </sheetViews>
@@ -802,7 +802,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.88"/>
   </cols>
